--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_0_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_0_sine_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.29000000000051</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.773959005888173e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>7.165984977126011e-14</v>
+        <v>8.707631565687502e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>42.42345993516142</v>
+        <v>47.43455642503663</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[30.538020369869407, 54.30889950045343]</t>
+          <t>[36.32708692388887, 58.542025926184394]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.437361506541947e-11</v>
+        <v>9.103828801926284e-15</v>
       </c>
       <c r="N2" t="n">
-        <v>6.874723013083894e-11</v>
+        <v>1.820765760385257e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.264184431174272</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.9748685912040402, 1.553500271144503]</t>
+          <t>[1.5786581702723481, 2.0818161528292727]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.76288309802145</v>
+        <v>59.30232333483188</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.15399318454057, 68.37177301150234]</t>
+          <t>[52.92256593474413, 65.68208073491962]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>20.20162162162203</v>
+        <v>18.41933933933978</v>
       </c>
       <c r="X2" t="n">
-        <v>19.0371171171175</v>
+        <v>17.37869869869911</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.36612612612656</v>
+        <v>19.45997997998045</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.19000000000034</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.868671883897832e-11</v>
+        <v>2.907662555173829e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>5.339516204598554e-11</v>
+        <v>8.723953956895887e-09</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.21925723072039</v>
+        <v>39.22204819488321</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.592986820663, 59.84552764077779]</t>
+          <t>[23.120431299054744, 55.32366509071167]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9.106458254137806e-09</v>
+        <v>3.738547581955132e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>9.106458254137806e-09</v>
+        <v>3.738547581955132e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3207632138800394</v>
+        <v>-0.7170001251436169</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.03144737390980712, 0.6729738016698859]</t>
+          <t>[-1.1195265111891555, -0.3144737390980783]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.07393203675925153</v>
+        <v>0.0005787008264350746</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07393203675925153</v>
+        <v>0.0005787008264350746</v>
       </c>
       <c r="S3" t="n">
-        <v>65.41343648843809</v>
+        <v>60.77056055235537</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.24003837235762, 73.58683460451857]</t>
+          <t>[52.558178671847145, 68.9829424328636]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.9550750750754</v>
+        <v>2.686246246246274</v>
       </c>
       <c r="X3" t="n">
-        <v>21.59907907907938</v>
+        <v>1.178178178178192</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.31107107107141</v>
+        <v>4.194314314314355</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_0_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_0_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.27000000000051</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>8.707631565687502e-16</v>
+        <v>6.083413833562501e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>47.43455642503663</v>
+        <v>47.42264341881106</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.32708692388887, 58.542025926184394]</t>
+          <t>[36.11998177880715, 58.72530505881496]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9.103828801926284e-15</v>
+        <v>2.242650509742816e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.820765760385257e-14</v>
+        <v>4.485301019485632e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.83023716155081</v>
+        <v>1.364816027685656</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5786581702723481, 2.0818161528292727]</t>
+          <t>[1.1006580868432714, 1.6289739685280402]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.30232333483188</v>
+        <v>62.21697206952312</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.92256593474413, 65.68208073491962]</t>
+          <t>[55.409869923353455, 69.02407421569278]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.41933933933978</v>
+        <v>19.78092092092132</v>
       </c>
       <c r="X2" t="n">
-        <v>17.37869869869911</v>
+        <v>18.7185185185189</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.45997997998045</v>
+        <v>20.84332332332374</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.54000000000024</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.907662555173829e-09</v>
+        <v>5.632161403923419e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>8.723953956895887e-09</v>
+        <v>1.631952320823155e-12</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>39.22204819488321</v>
+        <v>46.25389026249892</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[23.120431299054744, 55.32366509071167]</t>
+          <t>[30.734148954730983, 61.77363157026686]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.738547581955132e-06</v>
+        <v>2.680088218021126e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.738547581955132e-06</v>
+        <v>2.680088218021126e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.7170001251436169</v>
+        <v>-0.9182633181663862</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.1195265111891555, -0.3144737390980783]</t>
+          <t>[-1.2327370572644636, -0.6037895790683088]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0005787008264350746</v>
+        <v>4.76665511506269e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0005787008264350746</v>
+        <v>4.76665511506269e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>60.77056055235537</v>
+        <v>56.78490591595602</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.558178671847145, 68.9829424328636]</t>
+          <t>[48.948426323541824, 64.62138550837022]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.686246246246274</v>
+        <v>3.430050050050085</v>
       </c>
       <c r="X3" t="n">
-        <v>1.178178178178192</v>
+        <v>2.255375375375398</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.194314314314355</v>
+        <v>4.604724724724771</v>
       </c>
     </row>
   </sheetData>
